--- a/data/ES + technologies + hide.xlsx
+++ b/data/ES + technologies + hide.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hLsLABtGpiGeFldYtV4vgL6eDHT2Wl6mhpl89aHF4pg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5TtbfGZDFAjrsipgB0nf0Q7oXTYRQJlV45Pe0SQeHjY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Authors</t>
   </si>
@@ -282,33 +282,6 @@
     <t>Beef is a key product in cattle farming and comes from either suckler cows or dairy cows.Numerous evaluations show that meat production with dairy cows is the most climate-friendly process (from the perspective of the CO2-footprint per unit of beef). The favorable climate balance is mainly due to the fact that beef is here a by-product of milk production.The GHG-emissions for beef from suckler cow husbandry are - from a global perspective - almost four times as high as those from dairy cow herds.However, meat production with specialized suckler cows always has associated advantages, such as the use of grassland in locations where arable use is not possible or unfavorable due to the climatic and geomorphological conditions, including the provision of ecosystem services and the promotion of rural areas.In addition, especially in the case of extensive forms of beef production, valuable biotopes and/or cultivated landscapes are preserved, thus promoting biodiversity.Beef production with suckler cows thus not only provides high-quality food and other products (such as dung, hides and hair as well as bones and horns) but can also - correctly adapted to the location - have many positive effects on the environment, including the protection of grassland ecosystems and conservation biodiversity and soil carbon.</t>
   </si>
   <si>
-    <t>Gupta, Deepti</t>
-  </si>
-  <si>
-    <t>Secure Infrastructure for Internet of Medical Things Using Machine Learning</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ibáñez González, José Miguel</t>
-  </si>
-  <si>
-    <t>Background: The Social and Mechanized Organization of COSSBO</t>
-  </si>
-  <si>
-    <t>Jiang, Jian</t>
-  </si>
-  <si>
-    <t>Vulnerabilities, Cybersecurity, and the Role of Law and Regulation Herein</t>
-  </si>
-  <si>
-    <t>Dong, Shuaike</t>
-  </si>
-  <si>
-    <t>Understanding and Assessing the Security of Smart Devices</t>
-  </si>
-  <si>
     <t>Lee, MyeongHo</t>
   </si>
   <si>
@@ -316,48 +289,6 @@
   </si>
   <si>
     <t>Rapid data explosion of data generated by ordinary consumers and unstructured data has a great influence on how data is used. In the future, Big Data are used to make important decisions of the organization, and the desire to interpret various patterns hidden in many heterogeneous data, to predict the future and to find value is getting bigger, and it is demanding quick service based on the latest information. However, there are a lot of industrial cases that utilize Big Data, but most of them are based on practical cases. Big Data-based systems based on the Hadoop Ecosystem and Spring Framework with Big Data technology were lacking. Therefore, this study collects the data retrieved from the Naver blog on the basis of the Hadoop Ecosystem through the Spring Framework on the web of the next generation web standards. After loading the collected data on the Hadoop Distributed File System(HDFS) and HBase, we design and implement a big data utilization system that can visualize POS-tagging analysis results through word cloud using Twitter POS-tagging analyzer based on the loaded data. In the future, we will provide a reference model for the Big Data utilization system that utilizes the Hadoop Ecosystem and the Spring Framework using the next generation web standards.</t>
-  </si>
-  <si>
-    <t>한정엽</t>
-  </si>
-  <si>
-    <t>A Study on Development of HMD Interactive Contents Based on Virtual Reality - Focusing on Tour of Namseoul University Campus -</t>
-  </si>
-  <si>
-    <t>(Background and Purpose)There has been a soaring demand in the market for VR content area in 2016, the starting year of growth in VR(Virtual Reality) ecosystem. However, there is a lack of contents in terms of both quantity and quality as VR content development in Korea has been led primarily by small and medium-sized enterprises. Under those circumstances, the purpose of this study was to present production and detailed workflow systematically in connection with development of Namseoul University campus VR contents targeting freshmen for the purpose of VR commercialization. (Method)1) Types of HMD and VR environment configuration conditions were presented on the basis of virtual reality(VR) theory. 2) The researcher analyzed subjects of each content, producers, content production techniques and characteristics in order to derive production techniques and scenario applicable to contents of VR common platform. 3) The production and detailed workflow were presented systematically based on case analysis in relation to development of interactive VR contents for campus of N University. (Results)The system and systematic stages for production of N University campus VR contents were as follows: 1) The intention of VR content development was to allow freshmen of N University to gain proactive experience with virtual campus tour. For that, a lot of experience-related information was provided regarding the location, names, purposes, etc., of buildings. 2) For shooting equipments, the researcher prepared 7 units of GoPro with an output of up to 4K, holders, remote controllers, battery chargers, SD cards, tripods, etc. Edition in latter part of process can be facilitated when subjects are at least 2m apart from each other in the case of 360Â° VR shooting. It is important to ensure that staffs are hidden so as to prevent them from being captured by camera. 3) 360Â° stitching and special effect(VFX) is a process to convert 7 images into single 360Â° image through stitching procedure. It requires special technique involving the use of 4 programs and therefore constant research is needed. 4) The latter part of process enabling the experience of 360Â° VR image through HMD was designed with engines such as unity or unreal, etc. (Conclusions) Based on the results of this study, the course of VR content development can be presented as below: 1) Interactive space design which combines virtual contents and real space can be created by using LBS(Location Based Service) and motion recognition technology(Kinect), etc. 2) 360Â° image has been evolving into 360Â° real-life shooting, 360Â° selective and 360Â° mobile contents, and also developing into converged contents such as 360Â° image + 3D modeling, 360Â° image + interaction, etc. 3) Images shoot at 360Â° can find various applications such as many different VR devices, 360Â° web, etc. Based on overall consideration of aforesaid results, HMD-based VR interactive contents are evolving into interactive information space combined with real space through development of image shooting technology, VR technology, and devices. Thus, HMD-based VR interactive contents are expected to develop into virtual training spatial design, virtual entertainment spatial design, virtual interactive entertainment spatial design, virtual interactive education spatial design, etc., and researches need to be carried out on those spatial designs.</t>
-  </si>
-  <si>
-    <t>Jiang, Bingnan</t>
-  </si>
-  <si>
-    <t>Optimization and Management of Cyber-Physical Systems - Smart Grid and Plug-in Hybrid Electric Vehicles</t>
-  </si>
-  <si>
-    <t>Seoin, Baek; 이성민; 장현준</t>
-  </si>
-  <si>
-    <t>Exploratory Research on the Entrepreneurship and Work Experience: A Comparative Case Study on the Opportunity Exploration, Opportunity Realization, Risk Management Strategy</t>
-  </si>
-  <si>
-    <t>Recent entrepreneurship research has focused on success strategy and risk management of venture firms due to the outstanding performance of hidden champions. In this research, we aimed to investigate the relationship between work experience and entrepreneurship in two different types of firms (technology-intensive firms and marketing-intensive firms), and propose the relative strategies at three stages; opportunity exploration, opportunity realization and risk management. According to this study, at opportunity exploration stage, entrepreneurs with work experience tended to explore the business opportunity from the problem of previous organization, while entrepreneurs with no work experience captured the opportunity from their normal life. At opportunity realization stage, technology-intensive firm with work experience-based entrepreneur, realized opportunity by inventing technology for specific segment, while technology-intensive firm with no work experience-based entrepreneur focused on technology, which is easy to be compatible with other services. In other hands, marketing-intensive firm with work experience-based entrepreneur, tried to solve the structural problem of existing ecosystem while marketing-intensive firm with no experience-based entrepreneur focused on SNS channels and cloud funding. At risk management stage, technology-intensive firms with both work experience-based and no experience-based entrepreneurs are concentrated on developing marketing channels by cooperating with major distribution firms, while marketing intensive firms with both work experience based, and no experience-based entrepreneurs are relying on diversification of service and product.</t>
-  </si>
-  <si>
-    <t>Islam, Md Monirul</t>
-  </si>
-  <si>
-    <t>Vulnerability and adaptation of fishing communities to the impacts of climate variability and change: insights from coastal bangladesh</t>
-  </si>
-  <si>
-    <t>Liang, Kun Ding</t>
-  </si>
-  <si>
-    <t>Research and Simulation of Ecosystem Network Model based on OPNET</t>
-  </si>
-  <si>
-    <t>Norta, Alexander Horst</t>
-  </si>
-  <si>
-    <t>Exploring dynamic inter-organizational business process collaboration</t>
   </si>
   <si>
     <t>Kim, Jeong Suk</t>
@@ -1043,7 +974,7 @@
         <v>89</v>
       </c>
       <c r="C30" s="1">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>90</v>
@@ -1057,151 +988,71 @@
         <v>92</v>
       </c>
       <c r="C31" s="1">
-        <v>2021.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2018.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2006.0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
@@ -6890,66 +6741,6 @@
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
       <c r="D989" s="1"/>
-    </row>
-    <row r="990" ht="12.75" customHeight="1">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-    </row>
-    <row r="991" ht="12.75" customHeight="1">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-    </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
